--- a/output_excel_coordinates_missing.xlsx
+++ b/output_excel_coordinates_missing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,74 +521,70 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marshfield Clinic, Inc.</t>
+          <t>Nebraska Hematology Oncology PC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marshfield Medical Center_PERFEXION</t>
+          <t>Nebraska Hematology Oncology PC  - VersaHD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>611 N SAINT JOSEPH AVE</t>
+          <t>3240 FOLKWAYS BLVD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MARSHFIELD</t>
+          <t>LINCOLN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>54449-1832</t>
+          <t>68504-1199</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10/2/2026</t>
-        </is>
-      </c>
+          <t>Eric Crabtree</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10/3/2014</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>10/2/2025</t>
-        </is>
-      </c>
+          <t>1/7/2023</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>9.99</v>
+        <v>1.72</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>LGK Perfexion/12864-002/6220</t>
+          <t>VERSA HD/30006754-001/156644</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>611 N SAINT JOSEPH AVE, MARSHFIELD, WI, 54449</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+          <t>3240 FOLKWAYS BLVD, LINCOLN, NE, 68504</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>40.86506196495567</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-96.67693918911557</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -596,78 +592,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>University Of Iowa</t>
+          <t>Norman Regional Hospital - OK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF IA_ICON</t>
+          <t>NORMAN REG HOSP_Infinity_153050</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR</t>
+          <t>901 N PORTER ST</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IOWA CITY</t>
+          <t>NORMAN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>52242-1009</t>
+          <t>73071-6404</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Drew Dirks</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5/19/2028</t>
+          <t>5/1/2028</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Erik Thorlakson</t>
+          <t>Dave Morris</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5/18/2018</t>
+          <t>10/7/2013</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5/19/2027</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.36</v>
+        <v>10.98</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>LGK Icon/12108-004/8041</t>
+          <t>ELEKTA INFINITY/11908-006/153050</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR, IOWA CITY, IA, 52242</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>41.65846519999999</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-91.54927146883148</v>
-      </c>
+          <t>901 N PORTER ST, NORMAN, OK, 73071</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -675,74 +667,78 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CENTRACARE RICE MEMORIAL HOSPITAL</t>
+          <t>Cancer Centers of Southwest Oklahoma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WILLMAR REGIONAL CANCER CTR_Synergy 152549</t>
+          <t>Cancer Centers of Southwest Oklahoma_VERSAHD - 156034</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>301 BECKER AVE SW</t>
+          <t>104 NW 31st St</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WILMAR</t>
+          <t>LAWTON</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>56201-3302</t>
+          <t>73505-6100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
+          <t>Justin Damore</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5/1/2026</t>
+          <t>5/1/2034</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/15/2011</t>
+          <t>12/8/2019</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5/1/2024</t>
+          <t>5/1/2031</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12.87</v>
+        <v>4.81</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>ELEKTA SYNERGY/11718-004/152549</t>
+          <t>VERSA HD/13009-004/156034</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>301 BECKER AVE SW, WILMAR, MN, 56201</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+          <t>104 NW 31st St, LAWTON, OK, 73505</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>34.60910537626254</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-98.43162784092995</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -750,77 +746,69 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Northwestern Lake Forest Hospital</t>
+          <t>Cancer Centers of Southwest Oklahoma</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NORTHWESTERN LAKE FOREST HOSP_VERSA HD - 154323</t>
+          <t>DUNCAN REGIONAL HOSPITAL -VERSAHD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1000 N WESTMORELAND RD</t>
+          <t>1407 N WHISENANT DR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LAKE FOREST</t>
+          <t>DUNCAN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>60045-1659</t>
+          <t>73533-1650</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5/1/2032</t>
-        </is>
-      </c>
+          <t>Justin Damore</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Dave Morris</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8/26/2017</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>5/1/2029</t>
-        </is>
-      </c>
+          <t>5/14/2022</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>7.09</v>
+        <v>2.38</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>VERSA HD/14175-004/154323</t>
+          <t>VERSA HD/13009-008/156829</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1000 N WESTMORELAND RD, LAKE FOREST, IL, 60045</t>
+          <t>1407 N WHISENANT DR, DUNCAN, OK, 73533</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>42.2520961</v>
+        <v>34.52047905000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>-87.8654413</v>
+        <v>-97.97598413392802</v>
       </c>
     </row>
     <row r="6">
@@ -829,77 +817,69 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fairview University Medical Center</t>
+          <t>Cancer Centers of Southwest Oklahoma</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UNIV OF MINNESOTA MEDICAL CENTER_ICON</t>
+          <t>CANCER CENTERS OF SOUTHWEST OKLAHOMA - VERSAHD 156941</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>420 DELAWARE STREET</t>
+          <t>104 NW 31st ST</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MINNEAPOLIS</t>
+          <t>LAWTON</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>55455-0341</t>
+          <t>73505-6100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>6/14/2029</t>
-        </is>
-      </c>
+          <t>Justin Damore</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Tyler Moser</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>6/14/2028</t>
-        </is>
-      </c>
+          <t>11/21/2022</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>5.29</v>
+        <v>1.85</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>LGK Icon/10636-006/8062</t>
+          <t>VERSA HD/13009-005/156941</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>420 DELAWARE STREET, MINNEAPOLIS, MN, 55455</t>
+          <t>104 NW 31st ST, LAWTON, OK, 73505</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>44.9719889</v>
+        <v>34.60910537626254</v>
       </c>
       <c r="Q6" t="n">
-        <v>-93.23289533099673</v>
+        <v>-98.43162784092995</v>
       </c>
     </row>
     <row r="7">
@@ -908,77 +888,69 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mercy Health System Corp</t>
+          <t>Cancer Centers of Southwest Oklahoma</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MERCY HLTH SYSTEM CORP_VERSA HD #1 - 154719</t>
+          <t>JACKSON COUNTY MEMORIAL HOSPITAL VERSAHD 156989</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1000 MINERAL POINT AVE</t>
+          <t>1200 E PECAN ST</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JANESVILLE</t>
+          <t>ALTUS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>53548-2940</t>
+          <t>73521-6141</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>James Hinds</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5/1/2033</t>
-        </is>
-      </c>
+          <t>Justin Damore</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Dave Morris</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7/18/2018</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>5/1/2030</t>
-        </is>
-      </c>
+          <t>2/17/2023</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>6.2</v>
+        <v>1.61</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>VERSA HD/14402-002/154719</t>
+          <t>VERSA HD/13009-006/156989</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1000 MINERAL POINT AVE, JANESVILLE, WI, 53548</t>
+          <t>1200 E PECAN ST, ALTUS, OK, 73521</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>42.68793045</v>
+        <v>34.6357194</v>
       </c>
       <c r="Q7" t="n">
-        <v>-89.0338544387098</v>
+        <v>-99.31785417673278</v>
       </c>
     </row>
     <row r="8">
@@ -987,77 +959,77 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Northwestern Memorial Hospital</t>
+          <t>SoutheastHEALTH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Northwestern Mem Hosp_Lgk ICON 6060</t>
+          <t>SoutheastHEALTH_Infinity #1 152210</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>251 E Huron St</t>
+          <t>789 S MOUNT AUBURN RD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>CAPE GIRARDEAU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60611-2908</t>
+          <t>63703-6387</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Patrick Luehrs</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9/30/2019</t>
+          <t>12/23/2010</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8/27/2023</t>
+          <t>5/1/2022</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>4.99</v>
+        <v>13.77</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>LGK Icon/11798-009/6060</t>
+          <t>ELEKTA INFINITY/12275-002/152210</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>251 E Huron St, Chicago, IL, 60611</t>
+          <t>789 S MOUNT AUBURN RD, CAPE GIRARDEAU, MO, 63703</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>41.894585</v>
+        <v>37.2876576</v>
       </c>
       <c r="Q8" t="n">
-        <v>-87.62154622794023</v>
+        <v>-89.5690147</v>
       </c>
     </row>
     <row r="9">
@@ -1066,77 +1038,69 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mercy Health System Corp</t>
+          <t>SoutheastHEALTH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MERCY HLTH SYSTEM CORP_VERSA HD #2 - 156167</t>
+          <t>SOUTHEASTHEALTH - VersaHD 157061</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1000 MINERAL POINT AVE</t>
+          <t>789 S. MOUNT AUBURN RD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JANESVILLE</t>
+          <t>CAPE GIRARDEAU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>53548-2940</t>
+          <t>63703-6387</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>James Hinds</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>5/1/2035</t>
-        </is>
-      </c>
+          <t>Patrick Luehrs</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5/2/2020</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>5/1/2032</t>
-        </is>
-      </c>
+          <t>5/25/2023</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>4.41</v>
+        <v>1.35</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>VERSA HD/14402-003/156167</t>
+          <t>VERSA HD/12275-006/157061</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1000 MINERAL POINT AVE, JANESVILLE, WI, 53548</t>
+          <t>789 S. MOUNT AUBURN RD, CAPE GIRARDEAU, MO, 63703</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>42.68793045</v>
+        <v>37.2876576</v>
       </c>
       <c r="Q9" t="n">
-        <v>-89.0338544387098</v>
+        <v>-89.5690147</v>
       </c>
     </row>
     <row r="10">
@@ -1145,77 +1109,77 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mercyhealth Cancer Center?Rockford</t>
+          <t>Oklahoma Cancer Specialists and Research Institute, LLC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MERCYHEALTH HOSP - ROCKTON AVE_VERSA HD</t>
+          <t>OK CANCER SPEC AND RESEARCH INST_VERSAHD #2 - 156455</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2400 N ROCKTON AVE</t>
+          <t>12697 E 51ST ST S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ROCKFORD</t>
+          <t>TULSA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>61103-3655</t>
+          <t>74146-6236</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5/1/2033</t>
+          <t>5/1/2035</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Dave Morris</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12/3/2018</t>
+          <t>1/30/2021</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5/1/2030</t>
+          <t>5/1/2032</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5.82</v>
+        <v>3.66</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>VERSA HD/10228-004/154793</t>
+          <t>VERSA HD/12213-006/156455</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2400 N ROCKTON AVE, ROCKFORD, IL, 61103</t>
+          <t>12697 E 51ST ST S, TULSA, OK, 74146</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>42.29830490000001</v>
+        <v>36.0896953</v>
       </c>
       <c r="Q10" t="n">
-        <v>-89.09870328611456</v>
+        <v>-95.9551901</v>
       </c>
     </row>
     <row r="11">
@@ -1224,77 +1188,77 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Northwestern Memorial Hospital</t>
+          <t>Oklahoma Cancer Specialists and Research Institute, LLC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NORTHWESTERN MEMORIAL HOSP_Infinity_SLC 153871</t>
+          <t>OK CANCER SPEC &amp; RESEARCH INST. - 153858</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>251 E HURON ST</t>
+          <t>12697 E 51ST ST S</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CHICAGO</t>
+          <t>TULSA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>60611-2908</t>
+          <t>74146-6236</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5/1/2030</t>
+          <t>5/1/2032</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Jacob Blalock</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12/18/2015</t>
+          <t>2/23/2017</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5/1/2027</t>
+          <t>5/1/2029</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>8.779999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/11798-013/153871</t>
+          <t>VERSA HD/12213-008/153858</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>251 E HURON ST, CHICAGO, IL, 60611</t>
+          <t>12697 E 51ST ST S, TULSA, OK, 74146</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>41.894585</v>
+        <v>36.0896953</v>
       </c>
       <c r="Q11" t="n">
-        <v>-87.62154622794023</v>
+        <v>-95.9551901</v>
       </c>
     </row>
     <row r="12">
@@ -1303,77 +1267,69 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>North Radiation Therapy Center, Inc - MRO</t>
+          <t>Oklahoma Cancer Specialists and Research Institute, LLC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NORTH RADIATION THERAPY CTR_INFINITY 153738</t>
+          <t>OK CANCER SPEC AND RESEARCH INST - 156963</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3435 W BROADWAY</t>
+          <t>12697 E 51ST ST S</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ROBBINSDALE</t>
+          <t>TULSA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>55422-2922</t>
+          <t>74146-6236</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>5/1/2030</t>
-        </is>
-      </c>
+          <t>Michael Williams</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
+          <t>Dave Morris</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10/30/2015</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>5/1/2027</t>
-        </is>
-      </c>
+          <t>10/26/2023</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>8.92</v>
+        <v>0.92</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/14657-001/153738</t>
+          <t>VERSA HD/12213-007/156963</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3435 W BROADWAY, ROBBINSDALE, MN, 55422</t>
+          <t>12697 E 51ST ST S, TULSA, OK, 74146</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>45.0182237337974</v>
+        <v>36.0896953</v>
       </c>
       <c r="Q12" t="n">
-        <v>-93.32442475155598</v>
+        <v>-95.9551901</v>
       </c>
     </row>
     <row r="13">
@@ -1382,78 +1338,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Minneapolis Radiation Oncology - MRO</t>
+          <t>Oklahoma Cancer Specialists and Research Institute, LLC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RAD THER CTR AT FAIRVIEW SOUTHDALE_INFINITY 154182</t>
+          <t>OK CANCER SPEC &amp; RESEARCH INST. - 156371</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6401 FRANCE AVE S</t>
+          <t>12697 E 51ST S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EDINA</t>
+          <t>TULSA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>55435-2104</t>
+          <t>74146-6236</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>5/1/2032</t>
-        </is>
-      </c>
+          <t>Michael Williams</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2/10/2017</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>5/1/2029</t>
-        </is>
-      </c>
+          <t>Martin Brunnegraff</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>7.63</v>
+        <v>4.06</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/13272-002/154182</t>
+          <t>ELEKTA INFINITY/12213-009/156371</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>6401 FRANCE AVE S, EDINA, MN, 55435</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>44.8854691</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-93.3262253</v>
-      </c>
+          <t>12697 E 51ST S, TULSA, OK, 74146</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1461,69 +1401,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Froedtert Health, Inc.</t>
+          <t>Saint Francis Medical Center</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FROEDTERT ATL MRL 600010</t>
+          <t>ST FRANCIS MED CTR-CAPE GIRARDEAU_SYNERGY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE</t>
+          <t>211 SAINT FRANCIS DR</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MILWAUKEE</t>
+          <t>CAPE GIRARDEAU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>53226-3522</t>
+          <t>63703-5049</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Patrick Luehrs</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5/1/2030</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/16/2018</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>12/2/2015</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>5/1/2027</t>
+        </is>
+      </c>
       <c r="M14" t="n">
-        <v>5.87</v>
+        <v>8.83</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>UNITY SYSTEM/10817-011/600010</t>
+          <t>ELEKTA SYNERGY/15087-003/153867</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE, MILWAUKEE, WI, 53226</t>
+          <t>211 SAINT FRANCIS DR, CAPE GIRARDEAU, MO, 63703</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>43.04139555</v>
+        <v>37.3032483</v>
       </c>
       <c r="Q14" t="n">
-        <v>-88.02455616714732</v>
+        <v>-89.5690733</v>
       </c>
     </row>
     <row r="15">
@@ -1532,77 +1480,77 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Froedtert Health, Inc.</t>
+          <t>Saint Francis Medical Center</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FROEDTERT HOSP_VERSA HD RM L1</t>
+          <t>ST FRANCIS MED CTR-CAPE GIRARDEAU_INFINITY #1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE</t>
+          <t>211 SAINT FRANCIS DR</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MILWAUKEE</t>
+          <t>CAPE GIRARDEAU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>53226-3522</t>
+          <t>63703-5049</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Patrick Luehrs</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5/1/2031</t>
+          <t>5/1/2026</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1/24/2016</t>
+          <t>5/27/2011</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>5/1/2028</t>
+          <t>5/1/2024</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>8.68</v>
+        <v>13.35</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>VERSA HD/10817-010/153986</t>
+          <t>ELEKTA INFINITY/15087-001/152392</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE, MILWAUKEE, WI, 53226</t>
+          <t>211 SAINT FRANCIS DR, CAPE GIRARDEAU, MO, 63703</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>43.04139555</v>
+        <v>37.3032483</v>
       </c>
       <c r="Q15" t="n">
-        <v>-88.02455616714732</v>
+        <v>-89.5690733</v>
       </c>
     </row>
     <row r="16">
@@ -1611,77 +1559,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Froedtert Health, Inc.</t>
+          <t>Avera Cancer Institute Sioux Falls</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FROEDTERT HOSPITAL_ ICON</t>
+          <t>AVERA CANCER INSTITUTE SIOUX FALLS_Perfexion 6244 ICON</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE</t>
+          <t>1325 S CLIFF AVE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MILWAUKEE</t>
+          <t>SIOUX FALLS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>53226-3522</t>
+          <t>57105-1007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4/30/2027</t>
+          <t>4/10/2028</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Ben Rounce</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6/19/2017</t>
+          <t>5/26/2021</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4/30/2026</t>
+          <t>4/10/2027</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>7.28</v>
+        <v>3.34</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>LGK Icon/10817-009/6204</t>
+          <t>LGK Icon/10434-004/6244</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE, MILWAUKEE, WI, 53226</t>
+          <t>1325 S CLIFF AVE, SIOUX FALLS, SD, 57105</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>43.04139555</v>
+        <v>43.5342315</v>
       </c>
       <c r="Q16" t="n">
-        <v>-88.02455616714732</v>
+        <v>-96.71444870000001</v>
       </c>
     </row>
     <row r="17">
@@ -1690,69 +1638,77 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>University Of Iowa</t>
+          <t>Avera Cancer Institute Sioux Falls</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF IA_ATL MRL Unity 600019</t>
+          <t>AVERA CANCER INSTITUTE SIOUX FALLS_Versa HD #1 153144</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR</t>
+          <t>1325 S CLIFF AVE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IOWA CITY</t>
+          <t>SIOUX FALLS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>52242-1009</t>
+          <t>57105-1005</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Drew Dirks</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>5/1/2029</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Erik Thorlakson</t>
+          <t>Ben Rounce</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2/28/2019</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>1/22/2014</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>5/1/2026</t>
+        </is>
+      </c>
       <c r="M17" t="n">
-        <v>5.58</v>
+        <v>10.69</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>UNITY SYSTEM/12108-007/600019</t>
+          <t>VERSA HD/10434-002/153144</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR, IOWA CITY, IA, 52242</t>
+          <t>1325 S CLIFF AVE, SIOUX FALLS, SD, 57105</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>41.65846519999999</v>
+        <v>43.5342315</v>
       </c>
       <c r="Q17" t="n">
-        <v>-91.54927146883148</v>
+        <v>-96.71444870000001</v>
       </c>
     </row>
     <row r="18">
@@ -1761,77 +1717,77 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Froedtert Health, Inc.</t>
+          <t>Avera Cancer Institute Sioux Falls</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DREXEL TOWN SQUARE HEALTH CENTER_INFINITY</t>
+          <t>AVERA CANCER INSTITUTE SIOUX FALLS_VERSA HD #2 153752</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7901 S 6th St</t>
+          <t>1325 S CLIFF AVE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OAK CREEK</t>
+          <t>SIOUX FALLS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>53154-2010</t>
+          <t>57105-1007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5/1/2032</t>
+          <t>5/1/2030</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Ben Rounce</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10/26/2017</t>
+          <t>6/18/2015</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5/1/2029</t>
+          <t>5/1/2027</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>6.92</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/10817-013/154453</t>
+          <t>VERSA HD/10434-003/153752</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>7901 S 6th St, OAK CREEK, WI, 53154</t>
+          <t>1325 S CLIFF AVE, SIOUX FALLS, SD, 57105</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>42.90069315</v>
+        <v>43.5342315</v>
       </c>
       <c r="Q18" t="n">
-        <v>-87.91999174110438</v>
+        <v>-96.71444870000001</v>
       </c>
     </row>
     <row r="19">
@@ -1840,78 +1796,74 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Swedish Covenant Hospital</t>
+          <t>BJC Healthcare</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SWEDISH COVENANT HOSP_INFINITY</t>
+          <t>Barnes Jewish South Hosp_Icon</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5145 N CALIFORNIA AVE</t>
+          <t>216 S Kingshway Blvd</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CHICAGO</t>
+          <t>St Louis</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>60625-3661</t>
+          <t>63110-1026</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5/1/2032</t>
+          <t>10/28/2027</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Eric Crabtree</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5/19/2017</t>
+          <t>11/27/2017</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>5/1/2029</t>
+          <t>10/28/2026</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>7.36</v>
+        <v>6.84</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/14590-001/154312</t>
+          <t>LGK Icon/11395-010/6032</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5145 N CALIFORNIA AVE, CHICAGO, IL, 60625</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>41.975985</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-87.6987329</v>
-      </c>
+          <t>216 S Kingshway Blvd, St Louis, MO, 63110</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1919,78 +1871,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mayo Clinic Health System</t>
+          <t>Hannibal Regional Healthcare System</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAYO CLINIC HEALTH SYSTEM_ICON 8080</t>
+          <t>Hannibal Regional Healthcare System_Infinity</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1216 2ND ST NW</t>
+          <t>6000 Hospital Drive</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ROCHESTER</t>
+          <t>Hannibal</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>55901-0322</t>
+          <t>63401-6887</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8/27/2030</t>
+          <t>5/1/2029</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Tyler Moser</t>
+          <t>Erik Thorlakson</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8/26/2020</t>
+          <t>10/1/2014</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8/27/2029</t>
+          <t>5/1/2026</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4.09</v>
+        <v>10</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>LGK Icon/11073-016/8080</t>
+          <t>ELEKTA INFINITY/13830-001/153491</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1216 2ND ST NW, ROCHESTER, MN, 55901</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>44.02528366838796</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-92.48183092463709</v>
-      </c>
+          <t>6000 Hospital Drive, Hannibal, MO, 63401</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1998,77 +1946,77 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Northwestern Medicine Central DuPage Hospital</t>
+          <t>Lake Regional Hospital</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CENTRAL DUPAGE HOSP CANCER CTR_ICON 6197</t>
+          <t>LAKE REGIONAL HEALTH HOSP_Infinity</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4405 WEAVER PKWY</t>
+          <t>54 HOSPITAL DR</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARRENVILLE</t>
+          <t>OSAGE BEACH</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>60555-3269</t>
+          <t>65065-3050</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Charles Canady</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4/19/2027</t>
+          <t>5/1/2030</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Ben Huebner</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8/25/2020</t>
+          <t>4/9/2015</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>4/19/2026</t>
+          <t>5/1/2027</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4.09</v>
+        <v>9.48</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>LGK Icon/14153-001/6197</t>
+          <t>ELEKTA INFINITY/14535-001/153598</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>4405 WEAVER PKWY, WARRENVILLE, IL, 60555</t>
+          <t>54 HOSPITAL DR, OSAGE BEACH, MO, 65065</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>41.80244071979901</v>
+        <v>38.1192027</v>
       </c>
       <c r="Q21" t="n">
-        <v>-88.16442254206382</v>
+        <v>-92.6834707</v>
       </c>
     </row>
     <row r="22">
@@ -2077,66 +2025,78 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Northwestern Lake Forest Hospital</t>
+          <t>Avera Cancer Institute Mitchell</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NORTHWESTERN MEDICINE CANCER CTR_VERSA HD 156780</t>
+          <t>AVERA CANCER INSTITUTE MITCHELL_Infinity 153749</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1475 E BELVEDERE RD</t>
+          <t>525 N FOSTER ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GRAYSLAKE</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>60030-2012</t>
+          <t>57301-2966</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5/1/2030</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Michael Swedlund</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4/29/2022</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>9/2/2015</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>5/1/2027</t>
+        </is>
+      </c>
       <c r="M22" t="n">
-        <v>2.41</v>
+        <v>9.08</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>VERSA HD/14175-005/156780</t>
+          <t>ELEKTA INFINITY/12129-002/153749</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1475 E BELVEDERE RD, GRAYSLAKE, IL, 60030</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+          <t>525 N FOSTER ST, MITCHELL, SD, 57301</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>43.71482695</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-98.00710407500358</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2144,69 +2104,77 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>University Of Iowa</t>
+          <t>Saint Mary's Regional Medical Center</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF IA_VERSAHD C 156580</t>
+          <t>St Marys Reg Med Ctr_Synergy 152536</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR</t>
+          <t>1808 W Main St</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>IOWA CITY</t>
+          <t>Russellville</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>52242-1009</t>
+          <t>72801-2724</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Erik Thorlakson</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>David Morris</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5/1/2026</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Drew Dirks</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>9/17/2021</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>12/9/2011</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>5/1/2024</t>
+        </is>
+      </c>
       <c r="M23" t="n">
-        <v>3.03</v>
+        <v>12.81</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>VERSA HD/12108-009/156580</t>
+          <t>ELEKTA SYNERGY/10653-002/152536</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR, IOWA CITY, IA, 52242</t>
+          <t>1808 W Main St, Russellville, AR, 72801</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>41.65846519999999</v>
+        <v>35.28422475</v>
       </c>
       <c r="Q23" t="n">
-        <v>-91.54927146883148</v>
+        <v>-93.14909972264508</v>
       </c>
     </row>
     <row r="24">
@@ -2215,69 +2183,77 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UroPartners</t>
+          <t>Saint Mary's Regional Medical Center</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>UroPartners_ Advanced Gurnee_Infinity</t>
+          <t>St Marys Reg Med Ctr_Synergy Platform</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>95 North Greenleaf Street</t>
+          <t>1808 W Main St</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gurnee</t>
+          <t>Russellville</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>60031-3309</t>
+          <t>72801-2724</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>David Morris</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5/1/2026</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Ben Huebner</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>6/10/2009</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>8/19/2011</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>5/1/2024</t>
+        </is>
+      </c>
       <c r="M24" t="n">
-        <v>15.31</v>
+        <v>13.12</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/30006305-001/151942</t>
+          <t>ELEKTA SYNERGY PLATFORM/10653-003/152483</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>95 North Greenleaf Street, Gurnee, IL, 60031</t>
+          <t>1808 W Main St, Russellville, AR, 72801</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>42.36163095711535</v>
+        <v>35.28422475</v>
       </c>
       <c r="Q24" t="n">
-        <v>-87.90191685626442</v>
+        <v>-93.14909972264508</v>
       </c>
     </row>
     <row r="25">
@@ -2286,69 +2262,77 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FROEDTERT SOUTH INC</t>
+          <t>UNIV OF MO VET MEDICINE &amp; SURGERY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FROEDTERT SOUTH INC_VERSA HD</t>
+          <t>UNIV OF MO VET MED SURGERY_INFINITY 156282</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9555 76TH ST</t>
+          <t>900 E CAMPUS DR</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PLEASANT PRAIRIE</t>
+          <t>COLUMBIA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>53158-1984</t>
+          <t>65211-0001</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>Charles Canady</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5/1/2035</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>9/28/2022</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>6/14/2020</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>5/1/2032</t>
+        </is>
+      </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4.29</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>VERSA HD/16674-001/156880</t>
+          <t>ELEKTA INFINITY/16943-001/156282</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>9555 76TH ST, PLEASANT PRAIRIE, WI, 53158</t>
+          <t>900 E CAMPUS DR, COLUMBIA, MO, 65211</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>42.56591129012092</v>
+        <v>38.94016375</v>
       </c>
       <c r="Q25" t="n">
-        <v>-87.92562902538089</v>
+        <v>-92.31723259927897</v>
       </c>
     </row>
     <row r="26">
@@ -2357,66 +2341,78 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VA Medical Center Milwaukee</t>
+          <t>Mercy Hospital Springfield</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VA MED CTR MILWAUKEE_VERSAHD</t>
+          <t>MERCY CH CHUB OREILLY CANCER CENTER_INFINITY #2 - 154264</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5000 W NATIONAL AVE BLDG 111</t>
+          <t>2055 S FREMONT AVE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MILWAUKEE</t>
+          <t>SPRINGFIELD</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>53295-0001</t>
+          <t>65804-2206</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>Ben Huebner</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5/1/2032</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
+          <t>Charles Canady</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>11/4/2023</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>6/16/2017</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>5/1/2029</t>
+        </is>
+      </c>
       <c r="M26" t="n">
-        <v>0.9</v>
+        <v>7.29</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>VERSA HD/14982-004/156896</t>
+          <t>ELEKTA INFINITY/17660-003/154264</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>5000 W NATIONAL AVE BLDG 111, MILWAUKEE, WI, 53295</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+          <t>2055 S FREMONT AVE, SPRINGFIELD, MO, 65804</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>37.17683468769862</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-93.27166318260683</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2424,66 +2420,78 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VA Medical Center Milwaukee</t>
+          <t>Mercy Hospital Springfield</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VA MED CTR MILWAUKEE_VERSAHD #2 156897</t>
+          <t>MERCY CH CHUB OREILLY CANCER CENTER_INFINITY #1 - 154175</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5000 W NATIONAL AVE BLDG 111</t>
+          <t>2055 S FREMONT AVE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MILWAUKEE</t>
+          <t>SPRINGFIELD</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>53295-0001</t>
+          <t>65801-2206</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>Ben Huebner</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>5/1/2031</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
+          <t>Charles Canady</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>11/4/2023</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>11/22/2016</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>5/1/2028</t>
+        </is>
+      </c>
       <c r="M27" t="n">
-        <v>0.9</v>
+        <v>7.85</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>VERSA HD/14982-005/156897</t>
+          <t>ELEKTA INFINITY/17660-002/154175</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>5000 W NATIONAL AVE BLDG 111, MILWAUKEE, WI, 53295</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+          <t>2055 S FREMONT AVE, SPRINGFIELD, MO, 65801</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>37.17683468769862</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-93.27166318260683</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2491,69 +2499,77 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Froedtert Health, Inc.</t>
+          <t>St Anthony Shawnee Hospital</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FROEDTERT AND MEDICAL COLLEGE OF WI_VERSA HD 157017 L2</t>
+          <t>ST ANTHONY SHAWNEE HOSP_SYNERGY</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE</t>
+          <t>1102 W MACARTHUR ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MILWAUKEE</t>
+          <t>SHAWNEE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>53226-3522</t>
+          <t>74804-1743</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>David Morris</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>5/1/2030</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2/23/2023</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+          <t>7/27/2015</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>5/1/2027</t>
+        </is>
+      </c>
       <c r="M28" t="n">
-        <v>1.59</v>
+        <v>9.18</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>VERSA HD/10817-014/157017</t>
+          <t>ELEKTA SYNERGY/14376-001/151398</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE, MILWAUKEE, WI, 53226</t>
+          <t>1102 W MACARTHUR ST, SHAWNEE, OK, 74804</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>43.04139555</v>
+        <v>35.36181725458136</v>
       </c>
       <c r="Q28" t="n">
-        <v>-88.02455616714732</v>
+        <v>-96.93899320103093</v>
       </c>
     </row>
     <row r="29">
@@ -2562,77 +2578,77 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INSIGHT Hospital and Medical Center</t>
+          <t>GK Financing LLC.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mercy Hosp &amp; Med Ctr-Chicago_Synergy</t>
+          <t>BRYAN HEALTH-WEST AKA BRYAN LGK PFX 6253</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2525 S Michigan Ave</t>
+          <t>2300 S 16TH ST</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>LINCOLN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>60616-2332</t>
+          <t>68502-3704</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5/1/2024</t>
+          <t>8/17/2029</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>11/13/2009</t>
+          <t>8/18/2017</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>5/1/2022</t>
+          <t>8/17/2028</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>14.88</v>
+        <v>7.12</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>ELEKTA SYNERGY/13010-001/151861</t>
+          <t>LGK Perfexion/10567-044/6253</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2525 S Michigan Ave, Chicago, IL, 60616</t>
+          <t>2300 S 16TH ST, LINCOLN, NE, 68502</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>41.84681639999999</v>
+        <v>40.7894691</v>
       </c>
       <c r="Q29" t="n">
-        <v>-87.62250939450675</v>
+        <v>-96.69855175948612</v>
       </c>
     </row>
     <row r="30">
@@ -2641,77 +2657,77 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Leonard C. Ferguson Cancer Center</t>
+          <t>Manhattan Surgical Hospital d/b/a Central Kansas Cancer Center</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ferguson Cancer Care Ctr_Infinity</t>
+          <t>CENTRAL KANSAS CANCER CTR_Synergy - 153595</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1163 W Stephenson St</t>
+          <t>1133 COLLEGE AVE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Freeport</t>
+          <t>MANHATTAN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>61032-4866</t>
+          <t>66502-2770</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Jacob Blalock</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/1/2029</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Ben Huebner</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>7/24/2010</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>5/1/2022</t>
+          <t>5/1/2026</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>14.19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/15460-001/152192</t>
+          <t>ELEKTA SYNERGY/14734-001/153595</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1163 W Stephenson St, Freeport, IL, 61032</t>
+          <t>1133 COLLEGE AVE, MANHATTAN, KS, 66502</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>42.29547962114429</v>
+        <v>39.1925335</v>
       </c>
       <c r="Q30" t="n">
-        <v>-89.64075176247074</v>
+        <v>-96.6023134</v>
       </c>
     </row>
     <row r="31">
@@ -2720,78 +2736,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Northwest Community Hospital</t>
+          <t>Spencer Hospital</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Northwest Community Hosp_Infinity</t>
+          <t>Abben Cancer Center_VersaHD 156293</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>800 W Central Rd</t>
+          <t>1200 First Ave East</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arlington Hgts</t>
+          <t>SPENCER</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>60005-2349</t>
+          <t>51301-4342</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/1/2035</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Christian Milner</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>7/16/2010</t>
+          <t>5/27/2020</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5/1/2022</t>
+          <t>5/1/2032</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>14.21</v>
+        <v>4.34</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/14292-001/152175</t>
+          <t>VERSA HD/13589-001/156293</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>800 W Central Rd, Arlington Hgts, IL, 60005</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>42.0671124</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-87.9909067</v>
-      </c>
+          <t>1200 First Ave East, SPENCER, IA, 51301</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2799,78 +2811,74 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fairview University Medical Center</t>
+          <t>Mercy Hospital Joplin</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fairview Univ Med Ctr_Synergy</t>
+          <t>MERCY HOSPITAL JOPLIN_VERSA HD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>425 E River Pkwy</t>
+          <t>2817 SAINT JOHNS BLVD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>JOPLIN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>55455-0368</t>
+          <t>64804-1563</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
+          <t>Ben Huebner</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>5/1/2029</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Charles Canady</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10/30/2014</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>5/1/2026</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Ben Rounce</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2/8/2011</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
-      </c>
       <c r="M32" t="n">
-        <v>13.64</v>
+        <v>9.92</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>ELEKTA SYNERGY/10636-005/152331</t>
+          <t>VERSA HD/14216-001/153578</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>425 E River Pkwy, Minneapolis, MN, 55455</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>44.97104985</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-93.23249117521237</v>
-      </c>
+          <t>2817 SAINT JOHNS BLVD, JOPLIN, MO, 64804</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2878,78 +2886,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GK Financing LLC.</t>
+          <t>Mercy Hospital ADA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Osf St Francis Med Ctr_Lgk Perfexion</t>
+          <t>Mercy Hospital ADA_Synergy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>530 Ne Glen Oak Ave</t>
+          <t>430 N Monte Vista</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Peoria</t>
+          <t>Ada</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>61603-3133</t>
+          <t>74820-4610</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>David Morris</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2/10/2028</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2/11/2008</t>
+          <t>2/22/2010</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2/10/2027</t>
+          <t>5/1/2022</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>16.64</v>
+        <v>14.61</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>LGK Perfexion/10567-024/6014</t>
+          <t>ELEKTA SYNERGY/14368-001/152036</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>530 Ne Glen Oak Ave, Peoria, IL, 61603</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>40.7023663</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-89.58998457331252</v>
-      </c>
+          <t>430 N Monte Vista, Ada, OK, 74820</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2957,77 +2961,77 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mercy Medical Center North Iowa</t>
+          <t>MONUMENT HEALTH RAPID CITY HOSPITAL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MERCY MED CTR OF NO IA_Synergy</t>
+          <t>RAPID CITY REGIONAL HOSPITAL_Infinity 153143</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1000 4TH ST SW</t>
+          <t>353 FAIRMONT BLVD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MASON CITY</t>
+          <t>RAPID CITY</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>50401-2800</t>
+          <t>57701-7375</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5/1/2023</t>
+          <t>5/1/2029</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
+          <t>Michael Swedlund</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>4/10/2008</t>
+          <t>3/12/2014</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>5/1/2022</t>
+          <t>5/1/2026</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>16.47</v>
+        <v>10.55</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>ELEKTA SYNERGY/10199-008/151675</t>
+          <t>ELEKTA INFINITY/13543-001/153143</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1000 4TH ST SW, MASON CITY, IA, 50401</t>
+          <t>353 FAIRMONT BLVD, RAPID CITY, SD, 57701</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>43.1506722</v>
+        <v>44.05701875</v>
       </c>
       <c r="Q34" t="n">
-        <v>-93.21765120000001</v>
+        <v>-103.2250212425802</v>
       </c>
     </row>
     <row r="35">
@@ -3036,77 +3040,77 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Froedtert Health, Inc.</t>
+          <t>Avera Cancer Institute Yankton</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ST JOSEPHS HOSPITAL_INFINITY</t>
+          <t>AVERA CANCER INSTITUTE YANKTON_Infinity 154429</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3200 PLEASANT VALLEY RD</t>
+          <t>501 SUMMIT ST</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WEST BEND</t>
+          <t>YANKTON</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>53095-9274</t>
+          <t>57078-3855</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5/1/2027</t>
+          <t>5/1/2032</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Christian Milner</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>5/18/2012</t>
+          <t>10/26/2017</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>5/1/2024</t>
+          <t>5/1/2029</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>12.37</v>
+        <v>6.93</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/10817-007/152593</t>
+          <t>ELEKTA INFINITY/13865-001/154429</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>3200 PLEASANT VALLEY RD, WEST BEND, WI, 53095</t>
+          <t>501 SUMMIT ST, YANKTON, SD, 57078</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>43.35655045</v>
+        <v>42.87328005</v>
       </c>
       <c r="Q35" t="n">
-        <v>-88.19555204411837</v>
+        <v>-97.40820400931148</v>
       </c>
     </row>
     <row r="36">
@@ -3115,77 +3119,65 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Froedtert Health, Inc.</t>
+          <t>OKLAHOMA PROTON CENTER LLC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FROEDTERT HOSP_INFINITY RM L3</t>
+          <t>OKLAHOMA PROTON CTR LLC_VERSA HD 156467</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE</t>
+          <t>301 N 32ND ST</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MILWAUKEE</t>
+          <t>MUSKOGEE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>53226-3522</t>
+          <t>74401-2106</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>5/1/2028</t>
-        </is>
-      </c>
+          <t>Michael Williams</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>3/20/2013</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>5/1/2025</t>
-        </is>
-      </c>
+          <t>Dave Morris</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>11.53</v>
+        <v>3.37</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/10817-008/152927</t>
+          <t>VERSA HD/18026-001/156467</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>9200 W WISCONSIN AVE, MILWAUKEE, WI, 53226</t>
+          <t>301 N 32ND ST, MUSKOGEE, OK, 74401</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>43.04139555</v>
+        <v>35.75821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>-88.02455616714732</v>
+        <v>-95.4029703683148</v>
       </c>
     </row>
     <row r="37">
@@ -3194,77 +3186,77 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Beloit Memorial Hospital</t>
+          <t>HCA Research Medical Center</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BELOIT MEMORIAL HOSPITAL_Infinity 153035</t>
+          <t>HCA Research Medical Center_ICON</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1969 W HART RD</t>
+          <t>2316 E MEYER BLVD</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BELOIT</t>
+          <t>KANSAS CITY</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>53511-2230</t>
+          <t>64132-1136</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Felipe Jimenez</t>
+          <t>Jacob Blalock</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5/1/2028</t>
+          <t>6/1/2027</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Jacob Matl</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12/5/2013</t>
+          <t>5/31/2017</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>6/1/2026</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10.82</v>
+        <v>7.33</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/14147-001/153035</t>
+          <t>LGK Icon/13779-002/8026</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1969 W HART RD, BELOIT, WI, 53511</t>
+          <t>2316 E MEYER BLVD, KANSAS CITY, MO, 64132</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>42.54820975</v>
+        <v>39.00993505</v>
       </c>
       <c r="Q37" t="n">
-        <v>-89.00841689964749</v>
+        <v>-94.5597490400278</v>
       </c>
     </row>
     <row r="38">
@@ -3273,78 +3265,74 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Avera Cancer Institute Marshall</t>
+          <t>University of Oklahoma Health Sciences Center</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AVERA CANCER INSTITUTE MARSHALL_Infinity 153534</t>
+          <t>OU MEDICAL CENTER_ICON 8006</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>300 S BRUCE ST</t>
+          <t>825 NE 10TH ST STE 2220</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MARSHALL</t>
+          <t>OKLAHOMA CITY</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>56258-1934</t>
+          <t>73104-5417</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>5/1/2029</t>
+          <t>6/25/2027</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Tyler Moser</t>
+          <t>Jacob Blalock</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10/22/2014</t>
+          <t>10/16/2020</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5/1/2026</t>
+          <t>6/25/2026</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>9.94</v>
+        <v>3.95</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/30000686-001/153534</t>
+          <t>LGK Icon/11820-007/8006</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>300 S BRUCE ST, MARSHALL, MN, 56258</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>44.4477637</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-95.7773492508064</v>
-      </c>
+          <t>825 NE 10TH ST STE 2220, OKLAHOMA CITY, OK, 73104</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3352,77 +3340,77 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NEUROSCIENCE EQUIPMENT LLC</t>
+          <t>Innovis Health LLC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ALEXIAN BROTHERS MEDICAL CENTER_Perfexion</t>
+          <t>ESSENTIA HEALTH SOUTH UNIV CLINIC_VERSA HD 153373</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>800 BIESTERFIELD RD</t>
+          <t>1702 S UNIVERSITY DR</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ELK GROVE VILLAGE</t>
+          <t>FARGO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>60007-3361</t>
+          <t>58103-4940</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>James Hinds</t>
+          <t>Michael Swedlund</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5/17/2025</t>
+          <t>5/1/2029</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>BRANDON WERBLO</t>
+          <t>Tyler Moser</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>5/17/2013</t>
+          <t>4/30/2014</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>5/17/2024</t>
+          <t>5/1/2026</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>11.37</v>
+        <v>10.42</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LGK Perfexion/17539-001/6185</t>
+          <t>VERSA HD/14335-001/153373</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>800 BIESTERFIELD RD, ELK GROVE VILLAGE, IL, 60007</t>
+          <t>1702 S UNIVERSITY DR, FARGO, ND, 58103</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>42.0049353</v>
+        <v>46.8539056</v>
       </c>
       <c r="Q39" t="n">
-        <v>-88.0160223525147</v>
+        <v>-96.79759970000001</v>
       </c>
     </row>
     <row r="40">
@@ -3431,78 +3419,66 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Froedtert Community Memorial Hospital</t>
+          <t>Shawnee Mission Medical Center</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FROEDTERT COMMUNITY MEMORIAL HOSP WI_INFINITY</t>
+          <t>ADVNTST HLTH SHAWNEE MISSION MED CTR- Unity 600095</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>W180 N8085 TOWN HALL RD</t>
+          <t>9301 W 74th ST STE 100</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MENOMONEE FALLS</t>
+          <t>MERRIAM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>53051-3518</t>
+          <t>66204-2217</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ryan Rytlewski</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>5/1/2029</t>
-        </is>
-      </c>
+          <t>Jacob Blalock</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Joshua Angulo</t>
+          <t>Drew Dirks</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>4/21/2014</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>5/1/2026</t>
-        </is>
-      </c>
+          <t>4/30/2024</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>10.44</v>
+        <v>0.41</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/13600-001/153375</t>
+          <t>UNITY SYSTEM/14232-001/600095</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>W180 N8085 TOWN HALL RD, MENOMONEE FALLS, WI, 53051</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>43.1642559</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-88.13704561675806</v>
-      </c>
+          <t>9301 W 74th ST STE 100, MERRIAM, KS, 66204</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3510,78 +3486,74 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mercy Medical Center North Iowa</t>
+          <t>Mercy Hospital St Louis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mercy Med Ctr North Iowa_Infinity</t>
+          <t>MERCY HOSPITAL JEFFERSON MEMORIAL_VersaHD 154374</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1000 4TH STREET SW</t>
+          <t>1400 HWY 61 SOUTH</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MASON CITY</t>
+          <t>FESTUS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>50401-2800</t>
+          <t>63028-4104</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
+          <t>Patrick Luehrs</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>5/1/2032</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Jacob Matl</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>8/25/2017</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>5/1/2029</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Ben Rounce</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>9/17/2014</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>5/1/2026</t>
-        </is>
-      </c>
       <c r="M41" t="n">
-        <v>10.03</v>
+        <v>7.1</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ELEKTA INFINITY/10199-010/153474</t>
+          <t>VERSA HD/17661-008/154374</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1000 4TH STREET SW, MASON CITY, IA, 50401</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>43.1506722</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-93.21765120000001</v>
-      </c>
+          <t>1400 HWY 61 SOUTH, FESTUS, MO, 63028</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3589,77 +3561,69 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>University Of Iowa</t>
+          <t>Mercy Hospital St Louis</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF IA_VERSA HD #1 - 153471</t>
+          <t>MERCY HOSPITAL ST LOUIS_VERSAHD 156774</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR</t>
+          <t>615 S NEW BALLAS RD</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>IOWA CITY</t>
+          <t>ST LOUIS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>52242-1009</t>
+          <t>63141-8221</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Erik Thorlakson</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>5/1/2030</t>
-        </is>
-      </c>
+          <t>Jacob Matl</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Drew Dirks</t>
+          <t>Patrick Luehrs</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2/18/2015</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>5/1/2027</t>
-        </is>
-      </c>
+          <t>4/26/2022</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>9.609999999999999</v>
+        <v>2.42</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>VERSA HD/12108-002/153471</t>
+          <t>VERSA HD/17661-009/156774</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR, IOWA CITY, IA, 52242</t>
+          <t>615 S NEW BALLAS RD, ST LOUIS, MO, 63141</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>41.65846519999999</v>
+        <v>38.6454887</v>
       </c>
       <c r="Q42" t="n">
-        <v>-91.54927146883148</v>
+        <v>-90.44607953853161</v>
       </c>
     </row>
     <row r="43">
@@ -3668,77 +3632,69 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOUTHEAST IOWA REGIONAL MEDICAL CENTER</t>
+          <t>Mercy Hospital St Louis</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOUTHEAST IOWA REGIONAL MEDICAL CENTER _VERSA HD 153510</t>
+          <t>Mercy Hospital - Washington VERSAHD 157281</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1315 W AGENCY RD</t>
+          <t>901 E 5th St</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WEST BURLINGTON</t>
+          <t>WASHINGTON</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>52655-1654</t>
+          <t>63090-3127</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Erik Thorlakson</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>5/1/2030</t>
-        </is>
-      </c>
+          <t>Jacob Matl</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Drew Dirks</t>
+          <t>Charles Canady</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>4/10/2015</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>5/1/2027</t>
-        </is>
-      </c>
+          <t>2/23/2024</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>9.470000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>VERSA HD/10233-003/153510</t>
+          <t>VERSA HD/17661-010/157281</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1315 W AGENCY RD, WEST BURLINGTON, IA, 52655</t>
+          <t>901 E 5th St, WASHINGTON, MO, 63090</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>40.81156628076214</v>
+        <v>38.5526387</v>
       </c>
       <c r="Q43" t="n">
-        <v>-91.17210673989257</v>
+        <v>-91.00130009690861</v>
       </c>
     </row>
     <row r="44">
@@ -3747,77 +3703,77 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>University Of Iowa</t>
+          <t>Mercy Hospital Oklahoma City, Inc.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>UNIVERSITY OF IA_VERSA HD #2 - 153762</t>
+          <t>MERCY HOSPITAL OKLAHOMA CITY INC_PERFEXION</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR</t>
+          <t>4300 W MEMORIAL RD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>IOWA CITY</t>
+          <t>OKLAHOMA CITY</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>52242-1009</t>
+          <t>73120-8304</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Erik Thorlakson</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>5/1/2030</t>
+          <t>9/4/2029</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Drew Dirks</t>
+          <t>Jacob Blalock</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7/28/2015</t>
+          <t>9/5/2017</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5/1/2027</t>
+          <t>9/4/2028</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>9.17</v>
+        <v>7.07</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>VERSA HD/12108-003/153762</t>
+          <t>LGK Perfexion/12133-003/6262</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>200 HAWKINS DR, IOWA CITY, IA, 52242</t>
+          <t>4300 W MEMORIAL RD, OKLAHOMA CITY, OK, 73120</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>41.65846519999999</v>
+        <v>35.6071598</v>
       </c>
       <c r="Q44" t="n">
-        <v>-91.54927146883148</v>
+        <v>-97.60034601443002</v>
       </c>
     </row>
     <row r="45">
@@ -3826,70 +3782,74 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Minneapolis Radiation Oncology - MRO</t>
+          <t>Cancer Specialists of Oklahoma</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RAD THER CTR AT FAIRVIEW SOUTHDALE VersaHD 157315</t>
+          <t>CANCER SPECIALISTS OF OK_Synergy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6401 FRANCE AVE S</t>
+          <t>3525 NW 56TH ST STE D100</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EDINA</t>
+          <t>OKLAHOMA CITY</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>55435-2104</t>
+          <t>73112-4549</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>David Morris</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>5/1/2024</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
+          <t>Martin Brunnegraff</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7/12/2024</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>1/23/2009</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>5/1/2022</t>
+        </is>
+      </c>
       <c r="M45" t="n">
-        <v>0.21</v>
+        <v>15.69</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>VERSA HD/13272-003/157315</t>
+          <t>ELEKTA SYNERGY/13178-001/151811</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>6401 FRANCE AVE S, EDINA, MN, 55435</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>44.8854691</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-93.3262253</v>
-      </c>
+          <t>3525 NW 56TH ST STE D100, OKLAHOMA CITY, OK, 73112</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3897,69 +3857,902 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Saint Francis Radiation Therapy Center, Inc (MRO)</t>
+          <t>OCSRI Bartlesville Cancer Center</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ST FRANCIS RADIATION THERAPY CTR - VersaHD 157339</t>
+          <t>OCSRI Bartlesville Cancer Center_VERSAHD 156750</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1475 ST FRANCIS AVE</t>
+          <t>3470 E FRANK PHILLIPS BLVD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SHAKOPEE</t>
+          <t>BARTLESVILLE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>55379-3301</t>
+          <t>74006-2411</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ben Rounce</t>
+          <t>Jacob Blalock</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Christian Milner</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>6/5/2024</t>
+          <t>3/16/2022</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>0.31</v>
+        <v>2.54</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>VERSA HD/13273-002/157339</t>
+          <t>VERSA HD/11163-002/156750</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1475 ST FRANCIS AVE, SHAKOPEE, MN, 55379</t>
+          <t>3470 E FRANK PHILLIPS BLVD, BARTLESVILLE, OK, 74006</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>44.7701556294374</v>
+        <v>36.75066857894863</v>
       </c>
       <c r="Q46" t="n">
-        <v>-93.50397557548956</v>
+        <v>-95.93397222374598</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CHI St. Alexius Health</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MERCY MED CTR-WILLISTON_INFINITY</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1301 15th Ave W</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WILLISTON</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>58801-3821</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Michael Swedlund</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>5/1/2028</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>7/7/2013</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>5/1/2025</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>ELEKTA INFINITY/11342-002/152946</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1301 15th Ave W, WILLISTON, ND, 58801</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>48.15609045</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-103.6458437285975</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MERCY HOSPITAL ARDMORE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MERCY HOSPITAL ARDMORE_Infinity 156631</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1011 14TH AVE NW</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ARDMORE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>73401-1828</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>David Morris</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Martin Brunnegraff</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>9/17/2021</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>ELEKTA INFINITY/14605-002/156631</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1011 14TH AVE NW, ARDMORE, OK, 73401</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>34.1883714</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-97.14110895416411</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bismarck Cancer Center</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BISMARCK CANCER CENTER_VERSAHD #1 156530</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>500 N 8TH ST</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BISMARCK</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>58501-4445</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Michael Swedlund</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>5/1/2036</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5/28/2021</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>5/1/2033</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>VERSA HD/12722-004/156530</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>500 N 8TH ST, BISMARCK, ND, 58501</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>46.809651</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-100.780097</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Bismarck Cancer Center</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BISMARCK CANCER CENTER_VERSAHD #2 156648</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>500 N 8TH ST</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BISMARCK</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>58501-4445</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Michael Swedlund</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>10/29/2021</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>VERSA HD/12722-005/156648</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>500 N 8TH ST, BISMARCK, ND, 58501</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>46.809651</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-100.780097</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Bismarck Cancer Center</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BISMARCK CANCER CENTER_VERSAHD #3 157043</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>500 N 8TH ST</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BISMARCK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>58501-4445</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Michael Swedlund</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4/13/2023</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>VERSA HD/12722-006/157043</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>500 N 8TH ST, BISMARCK, ND, 58501</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>46.809651</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-100.780097</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Avera Cancer Institute Aberdeen</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AVERA CANCER INSTITUTE ABERDEEN_Infinity 153939</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>305 S STATE ST</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ABERDEEN</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>57401-4527</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Michael Swedlund</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>5/1/2031</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1/26/2016</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>5/1/2028</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>ELEKTA INFINITY/14357-001/153939</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>305 S STATE ST, ABERDEEN, SD, 57401</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>45.4616575</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-98.47866567894687</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Stillwater Medical Center</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>STILLWATER MEDICAL CENTER_INFINITY 154986</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1323 W 6TH AVE</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>STILLWATER</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>74074-4306</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Jacob Blalock</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>5/1/2034</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Dave Morris</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>5/17/2019</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>5/1/2031</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>ELEKTA INFINITY/30003193-002/154986</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1323 W 6TH AVE, STILLWATER, OK, 74074</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>36.1152107</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-97.0741161336411</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Stillwater Medical Center</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>STILLWATER MEDICAL CENTER - UNITY 600074</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1323 WEST SIXTH ST</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>STILLWATER</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>74074-4306</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Jacob Blalock</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Dave Morris</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>4/8/2023</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>UNITY SYSTEM/30003193-003/600074</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>1323 WEST SIXTH ST, STILLWATER, OK, 74074</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Anderson Hospital</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ANDERSON HOSPITAL_INFINITY</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6820 STATE ROUTE 162</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MARYVILLE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>62062-8500</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Jacob Matl</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5/1/2031</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Patrick Luehrs</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>12/19/2016</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>5/1/2028</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>ELEKTA INFINITY/30003318-001/154224</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>6820 STATE ROUTE 162, MARYVILLE, IL, 62062</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>38.73757809999999</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-89.94375286722416</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Mercy South</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MERCY SAINT ANTHONY_VERSAHD 156236</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10010 KENNERLY RD</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ST LOUIS</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>63128-2106</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Jacob Matl</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5/1/2035</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Patrick Luehrs</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>8/17/2020</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>5/1/2032</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>VERSA HD/30002105-002/156236</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>10010 KENNERLY RD, ST LOUIS, MO, 63128</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>38.50613535</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-90.38330256066584</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Avera Medical Group Pierre</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AVERA ST MARY'S HOSPITAL_INFINITY 154720</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>801 EAST SIOUX</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>PIERRE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>57501-3323</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Tyler Moser</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>5/1/2033</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Michael Swedlund</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>9/7/2018</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>5/1/2030</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>ELEKTA INFINITY/30002082-001/154720</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>801 EAST SIOUX, PIERRE, SD, 57501</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>44.360483</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-100.3420258848702</v>
       </c>
     </row>
   </sheetData>
